--- a/log/PSOELM_extracted_result/PSOELM_slp37_result/PSOELM_slp37_result.xlsx
+++ b/log/PSOELM_extracted_result/PSOELM_slp37_result/PSOELM_slp37_result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\thesis\PSOELM_slp37_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fennia\Documents\MATLAB\thesis\log\PSOELM_extracted_result\PSOELM_slp37_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -123,9 +123,6 @@
     <t>1 2 6 9 11 13 15 16</t>
   </si>
   <si>
-    <t>best experiment</t>
-  </si>
-  <si>
     <t>1 4 7 9 13 15 18</t>
   </si>
   <si>
@@ -349,6 +346,9 @@
   </si>
   <si>
     <t>1 7 8 11 13 15 16 17</t>
+  </si>
+  <si>
+    <t>BEST EXPERIMENT</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1100,7 @@
         <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1295,7 +1295,7 @@
         <v>274</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1315,7 +1315,7 @@
         <v>355</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1335,7 +1335,7 @@
         <v>339</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1355,7 +1355,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1375,7 +1375,7 @@
         <v>478</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1395,7 +1395,7 @@
         <v>411</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1415,7 +1415,7 @@
         <v>232</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
         <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1475,7 +1475,7 @@
         <v>414</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1495,7 +1495,7 @@
         <v>415</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1515,7 +1515,7 @@
         <v>239</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1535,10 +1535,10 @@
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1558,7 +1558,7 @@
         <v>372</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1578,7 +1578,7 @@
         <v>202</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>324</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1618,7 +1618,7 @@
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
         <v>439</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1658,7 +1658,7 @@
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1678,7 +1678,7 @@
         <v>442</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1698,7 +1698,7 @@
         <v>290</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1718,7 +1718,7 @@
         <v>328</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
         <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
         <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1833,7 +1833,7 @@
         <v>312</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>308</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1873,7 +1873,7 @@
         <v>400</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1893,7 +1893,7 @@
         <v>475</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1913,7 +1913,7 @@
         <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
         <v>244</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1953,7 +1953,7 @@
         <v>377</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1973,7 +1973,7 @@
         <v>341</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1993,7 +1993,7 @@
         <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2013,10 +2013,10 @@
         <v>257</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>409</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2056,7 +2056,7 @@
         <v>231</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2076,7 +2076,7 @@
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2116,7 +2116,7 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2136,7 +2136,7 @@
         <v>376</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
         <v>325</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>288</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
         <v>337</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2276,7 +2276,7 @@
         <v>446</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>377</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2316,7 +2316,7 @@
         <v>326</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2371,7 +2371,7 @@
         <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2391,7 +2391,7 @@
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2411,7 +2411,7 @@
         <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2431,7 +2431,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2451,7 +2451,7 @@
         <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2471,7 +2471,7 @@
         <v>94</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2491,7 +2491,7 @@
         <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2511,7 +2511,7 @@
         <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2531,7 +2531,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2551,7 +2551,7 @@
         <v>284</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2571,7 +2571,7 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2591,7 +2591,7 @@
         <v>219</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2611,7 +2611,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2631,7 +2631,7 @@
         <v>135</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2651,7 +2651,7 @@
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2671,7 +2671,7 @@
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2691,7 +2691,7 @@
         <v>135</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>149</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2731,7 +2731,7 @@
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2751,7 +2751,7 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2771,7 +2771,7 @@
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2791,7 +2791,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2811,7 +2811,7 @@
         <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2831,10 +2831,10 @@
         <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2854,7 +2854,7 @@
         <v>166</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
